--- a/Project/Excel Files/TransactionEntry.xlsx
+++ b/Project/Excel Files/TransactionEntry.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE8FD1-6D9C-497E-A1F8-0F9BB507FD9B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="6210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frameworksheet" sheetId="1" r:id="rId1"/>
@@ -243,13 +242,13 @@
     <t>nil</t>
   </si>
   <si>
-    <t>1212567</t>
+    <t>1212789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,26 +426,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,23 +461,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -671,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -1406,8 +1371,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{23C61C3C-3E73-4AAF-8113-6E8B067BD80A}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{6C689B21-785F-4169-B78D-23DE9A9EDEF9}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1415,11 +1380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0349F706-F668-474D-AC57-33BE8EB35660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
